--- a/biology/Botanique/Dipterocarpus/Dipterocarpus.xlsx
+++ b/biology/Botanique/Dipterocarpus/Dipterocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipterocarpus est un genre d'arbres de la famille des Dipterocarpaceae. Il regroupe environ 70 espèces originaires d'Asie, en particulier du sud-est asiatique.
-Comme la plupart des arbres émergents, arbres de très grandes tailles (plus de 40 m) qui dominent et émergent au-dessus de la canopée, ils ont des graines ailées qui "volent" pour atteindre une autre partie de la forêt tropicale[1].
+Comme la plupart des arbres émergents, arbres de très grandes tailles (plus de 40 m) qui dominent et émergent au-dessus de la canopée, ils ont des graines ailées qui "volent" pour atteindre une autre partie de la forêt tropicale.
 Ces arbres, appelés communément « keruing »[Par qui ?], sont recherchés pour leur bois et leur résine et ont une grande importance économique, quoique pas autant que le genre voisin Shorea.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon [réf. nécessaire] :
 Dipterocarpus acutangulus Vesque
@@ -583,7 +597,7 @@
 Dipterocarpus validus Blume
 Dipterocarpus verrucosus Foxw. ex Slooten
 Dipterocarpus zeylanicus
-Selon NCBI  (2 Sep 2010)[2] :
+Selon NCBI  (2 Sep 2010) :
 Dipterocarpus alatus
 Dipterocarpus baudii
 Dipterocarpus chartaceus
